--- a/Entities/DataMigration/EntityMapping.xlsx
+++ b/Entities/DataMigration/EntityMapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uipath-my.sharepoint.com/personal/mansi_bajpai_uipath_com/Documents/Documents/UiPath/orch1/Entities/DataMigration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uipath-my.sharepoint.com/personal/samuel_simao_uipath_com/Documents/Documents/UiPath/Migration Tool/Orchestrator Manager 2.6.2/Orchestrator Manager 2.6.2/Entities/DataMigration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06240EBA-E6C5-41D5-9766-A39099FCF3F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{06240EBA-E6C5-41D5-9766-A39099FCF3F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0647787-3F6B-4693-8082-194ACB9B0884}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BBD754C0-4219-4AD1-88B9-E6A067F0A300}"/>
+    <workbookView xWindow="-45000" yWindow="-8175" windowWidth="16410" windowHeight="10065" xr2:uid="{BBD754C0-4219-4AD1-88B9-E6A067F0A300}"/>
   </bookViews>
   <sheets>
     <sheet name="EntityNames" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>Entity</t>
   </si>
@@ -118,13 +118,16 @@
   </si>
   <si>
     <t>Downloadpackagelibrary</t>
+  </si>
+  <si>
+    <t>StorageBuckets</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +145,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -206,11 +217,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -229,7 +241,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -545,54 +557,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE251A1E-1ABC-493F-AA16-DF971B17C020}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -601,18 +620,18 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
-    <col min="4" max="4" width="21.21875" customWidth="1"/>
+    <col min="2" max="2" width="19.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.54296875" customWidth="1"/>
+    <col min="4" max="4" width="21.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -629,7 +648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -643,7 +662,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -657,7 +676,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -671,7 +690,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -685,7 +704,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -702,7 +721,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -716,7 +735,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>18</v>
       </c>
